--- a/TermProject/TermProjectRubric-CIS195.xlsx
+++ b/TermProject/TermProjectRubric-CIS195.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CIS195-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CIS195-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F20D2D-2E8E-CD4E-9D86-3C13A54FB85C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE7F435-935B-4B30-88A3-B36D9770AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="20920" windowHeight="22120" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="36996" yWindow="-1140" windowWidth="16128" windowHeight="13200" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Scores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,12 +52,6 @@
     <t>Appearance</t>
   </si>
   <si>
-    <t>At least 5 pages</t>
-  </si>
-  <si>
-    <t>Each page has a purpose</t>
-  </si>
-  <si>
     <t>Consistent header on each page</t>
   </si>
   <si>
@@ -61,12 +64,6 @@
     <t>Consistent navigation bar on each page</t>
   </si>
   <si>
-    <t>Content on each page (text or table)</t>
-  </si>
-  <si>
-    <t>At least 3 figures and images</t>
-  </si>
-  <si>
     <t>Images have alt text</t>
   </si>
   <si>
@@ -97,22 +94,41 @@
     <t>Published on citstudent</t>
   </si>
   <si>
-    <t>Term Project</t>
-  </si>
-  <si>
-    <t>Complete code review done for your site</t>
-  </si>
-  <si>
-    <t>Syntax and style are correct</t>
+    <t>At least 3 figures</t>
+  </si>
+  <si>
+    <t>Content on each page (text, images or table)</t>
+  </si>
+  <si>
+    <t>Completed code review for your site</t>
+  </si>
+  <si>
+    <t>At least 5 pages - each with a purpose</t>
+  </si>
+  <si>
+    <t>Best practices: indentation, style, comments, etc.</t>
+  </si>
+  <si>
+    <t>Syntax of HTML and CSS</t>
+  </si>
+  <si>
+    <t>CIS 195 Term Project Rubric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,24 +225,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,316 +581,318 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16">
+        <f>SUM(B4:B12)</f>
+        <v>55</v>
+      </c>
+      <c r="C13" s="16">
+        <f>SUM(C4:C12)</f>
+        <v>55</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C19" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10">
-        <v>5</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C20" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
-        <f>SUM(B3:B13)</f>
-        <v>58</v>
-      </c>
-      <c r="C14" s="12">
-        <f>SUM(C3:C13)</f>
-        <v>58</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="16">
+        <f>SUM(B16:B21)</f>
+        <v>23</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUM(C16:C21)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>5</v>
-      </c>
-      <c r="C17" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="C26" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="12">
-        <f>SUM(B17:B21)</f>
-        <v>20</v>
-      </c>
-      <c r="C22" s="12">
-        <f>SUM(C17:C21)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="10">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="B27" s="16">
         <f>SUM(B25:B26)</f>
         <v>20</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="16">
         <f>SUM(C25:C26)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15">
         <v>2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5">
-        <f>SUM(B14,B22,B27,B29)</f>
+      <c r="B31" s="19">
+        <f>SUM(B13,B22,B27,B29)</f>
         <v>100</v>
       </c>
-      <c r="C31" s="5">
-        <f>SUM(C14,C22,C27,C29)</f>
+      <c r="C31" s="19">
+        <f>SUM(C13,C22,C27,C29)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -865,129 +904,129 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>

--- a/TermProject/TermProjectRubric-CIS195.xlsx
+++ b/TermProject/TermProjectRubric-CIS195.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CIS195-CourseMaterials\TermProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE7F435-935B-4B30-88A3-B36D9770AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF1AD61-76CC-4C40-9348-3E7027CA9C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36996" yWindow="-1140" windowWidth="16128" windowHeight="13200" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="18600" yWindow="2664" windowWidth="11760" windowHeight="12204" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Possible</t>
   </si>
@@ -82,9 +82,6 @@
     <t>One embedded style</t>
   </si>
   <si>
-    <t>One page with three articles or sections</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>CIS 195 Term Project Rubric</t>
+  </si>
+  <si>
+    <t>Each page has section, article and header</t>
   </si>
 </sst>
 </file>
@@ -122,6 +122,13 @@
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,14 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,43 +224,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,315 +573,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="13"/>
+    <col min="2" max="3" width="11.19921875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="11"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="15">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="15">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15">
-        <v>10</v>
-      </c>
-      <c r="C12" s="15">
-        <v>10</v>
-      </c>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
         <f>SUM(B4:B12)</f>
         <v>55</v>
       </c>
-      <c r="C13" s="16">
-        <f>SUM(C4:C12)</f>
-        <v>55</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
-        <v>5</v>
-      </c>
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
-        <v>5</v>
-      </c>
+      <c r="B17" s="12">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="17">
         <v>5</v>
       </c>
-      <c r="C18" s="17">
-        <v>5</v>
-      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="15">
-        <v>3</v>
-      </c>
-      <c r="C20" s="15">
-        <v>3</v>
-      </c>
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="15">
-        <v>3</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="16">
+      <c r="A22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13">
         <f>SUM(B16:B21)</f>
         <v>23</v>
       </c>
-      <c r="C22" s="16">
-        <f>SUM(C16:C21)</f>
-        <v>23</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="15">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>15</v>
       </c>
-      <c r="C26" s="15">
-        <v>15</v>
-      </c>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="16">
+      <c r="A27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13">
         <f>SUM(B25:B26)</f>
         <v>20</v>
       </c>
-      <c r="C27" s="16">
-        <f>SUM(C25:C26)</f>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="15">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
-        <v>2</v>
-      </c>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <f>SUM(B13,B22,B27,B29)</f>
         <v>100</v>
       </c>
-      <c r="C31" s="19">
-        <f>SUM(C13,C22,C27,C29)</f>
-        <v>100</v>
-      </c>
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,11 +841,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -912,124 +853,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
+        <f>SUM(B4:B12)</f>
+        <v>55</v>
+      </c>
+      <c r="C13" s="13">
+        <f>SUM(C4:C12)</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13">
+        <f>SUM(B16:B21)</f>
+        <v>23</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C16:C21)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="12">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13">
+        <f>SUM(B25:B26)</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="13">
+        <f>SUM(C25:C26)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15">
+        <f>SUM(B13,B22,B27,B29)</f>
+        <v>100</v>
+      </c>
+      <c r="C31" s="15">
+        <f>SUM(C13,C22,C27,C29)</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TermProject/TermProjectRubric-CIS195.xlsx
+++ b/TermProject/TermProjectRubric-CIS195.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\TermProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF1AD61-76CC-4C40-9348-3E7027CA9C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1DFE6C-D15F-294F-B5BD-8563FC426864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="2664" windowWidth="11760" windowHeight="12204" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="10620" yWindow="500" windowWidth="18180" windowHeight="16480" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Scores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Possible</t>
   </si>
@@ -113,6 +104,9 @@
   </si>
   <si>
     <t>Each page has section, article and header</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -212,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,11 +214,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,267 +577,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="10"/>
+    <col min="2" max="2" width="8.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="13">
         <f>SUM(B4:B12)</f>
-        <v>55</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="12">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="17">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="12">
-        <v>2</v>
-      </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="12">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="12">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="13">
         <f>SUM(B16:B21)</f>
-        <v>23</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="13">
         <f>SUM(B25:B26)</f>
-        <v>20</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="12">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="15">
         <f>SUM(B13,B22,B27,B29)</f>
-        <v>100</v>
-      </c>
-      <c r="C31" s="15"/>
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,17 +824,17 @@
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -864,14 +843,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -882,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -893,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -915,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -926,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -937,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -948,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -959,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -970,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -983,18 +962,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
@@ -1038,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -1073,19 +1052,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1107,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1120,12 +1099,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
@@ -1136,12 +1115,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>

--- a/TermProject/TermProjectRubric-CIS195.xlsx
+++ b/TermProject/TermProjectRubric-CIS195.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1DFE6C-D15F-294F-B5BD-8563FC426864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B8977B-E560-2041-B4D9-8C247CC16445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="500" windowWidth="18180" windowHeight="16480" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="10620" yWindow="500" windowWidth="18180" windowHeight="16480" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Possible</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -214,20 +217,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,9 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -579,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="12">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -628,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -644,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="12">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -660,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,15 +659,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
-        <v>25</v>
+      <c r="B12" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,7 +676,7 @@
       </c>
       <c r="B13" s="13">
         <f>SUM(B4:B12)</f>
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -700,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -708,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -716,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -724,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -732,15 +723,15 @@
         <v>23</v>
       </c>
       <c r="B20" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18">
-        <v>10</v>
+      <c r="B21" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +740,7 @@
       </c>
       <c r="B22" s="13">
         <f>SUM(B16:B21)</f>
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,15 +758,15 @@
         <v>16</v>
       </c>
       <c r="B25" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="18">
-        <v>30</v>
+      <c r="B26" s="12">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +775,7 @@
       </c>
       <c r="B27" s="13">
         <f>SUM(B25:B26)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +800,7 @@
       </c>
       <c r="B31" s="15">
         <f>SUM(B13,B22,B27,B29)</f>
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -820,21 +811,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -843,14 +837,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -861,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -872,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -883,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -894,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -905,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -916,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -927,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -938,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -949,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -962,18 +956,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -981,7 +975,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="12">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,7 +1046,7 @@
       </c>
       <c r="C22" s="13">
         <f>SUM(C16:C21)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1127,7 @@
       </c>
       <c r="C31" s="15">
         <f>SUM(C13,C22,C27,C29)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/TermProject/TermProjectRubric-CIS195.xlsx
+++ b/TermProject/TermProjectRubric-CIS195.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B8977B-E560-2041-B4D9-8C247CC16445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023B381B-7271-904D-AF8B-32770F79F849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="18180" windowHeight="16480" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>Points</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,13 +823,14 @@
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="0.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -836,15 +838,18 @@
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -855,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -866,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -877,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -888,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -899,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -910,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -921,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -932,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -943,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -956,18 +961,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -975,10 +980,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,7 +1048,7 @@
       </c>
       <c r="C22" s="13">
         <f>SUM(C16:C21)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1129,7 @@
       </c>
       <c r="C31" s="15">
         <f>SUM(C13,C22,C27,C29)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
